--- a/data/sei_usdt_1h.xlsx
+++ b/data/sei_usdt_1h.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\trading_bot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{38702542-84AC-440A-8349-06628EDF0B5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7FC82D29-38F7-417A-89D6-64CEF2148F18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="72" yWindow="0" windowWidth="22968" windowHeight="12360" activeTab="3"/>
   </bookViews>
@@ -17748,8 +17748,8 @@
   <dimension ref="A1:R135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L11" sqref="L11:L14"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L125" sqref="L125:L135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17797,8 +17797,8 @@
         <v>100</v>
       </c>
       <c r="R1">
-        <f>MIN(E2:E10)</f>
-        <v>0.44269999999999998</v>
+        <f>MIN(E2:E38)</f>
+        <v>0.31680000000000003</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -18143,9 +18143,6 @@
       <c r="D9" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="E9" s="5">
-        <v>0.45889999999999997</v>
-      </c>
       <c r="F9" s="5" t="s">
         <v>330</v>
       </c>
@@ -18193,9 +18190,6 @@
       <c r="D10" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="E10" s="5">
-        <v>0.44269999999999998</v>
-      </c>
       <c r="F10" s="5" t="s">
         <v>354</v>
       </c>
@@ -18243,9 +18237,6 @@
       <c r="D11" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="E11" s="5">
-        <v>0.38779999999999998</v>
-      </c>
       <c r="F11" s="5" t="s">
         <v>375</v>
       </c>
@@ -18345,9 +18336,6 @@
       <c r="D13" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="E13" s="5">
-        <v>0.42609999999999998</v>
-      </c>
       <c r="F13" s="5" t="s">
         <v>385</v>
       </c>
@@ -18395,9 +18383,6 @@
       <c r="D14" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="E14" s="5">
-        <v>0.42709999999999998</v>
-      </c>
       <c r="F14" s="5" t="s">
         <v>389</v>
       </c>
@@ -18445,9 +18430,6 @@
       <c r="D15" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="E15" s="5">
-        <v>0.45639999999999997</v>
-      </c>
       <c r="F15" s="5" t="s">
         <v>393</v>
       </c>
@@ -18495,9 +18477,6 @@
       <c r="D16" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="E16" s="5">
-        <v>0.45660000000000001</v>
-      </c>
       <c r="F16" s="5" t="s">
         <v>397</v>
       </c>
@@ -18545,9 +18524,6 @@
       <c r="D17" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="E17" s="5">
-        <v>0.4577</v>
-      </c>
       <c r="F17" s="5" t="s">
         <v>401</v>
       </c>
@@ -18595,9 +18571,6 @@
       <c r="D18" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="E18" s="5">
-        <v>0.45829999999999999</v>
-      </c>
       <c r="F18" s="5" t="s">
         <v>405</v>
       </c>
@@ -19113,9 +19086,6 @@
       <c r="D28" t="s">
         <v>146</v>
       </c>
-      <c r="E28">
-        <v>0.31769999999999998</v>
-      </c>
       <c r="F28" t="s">
         <v>445</v>
       </c>
@@ -19135,21 +19105,17 @@
         <f>(O$1+SUM(N$2:N28))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L28" s="3">
-        <f t="shared" si="0"/>
-        <v>-40</v>
-      </c>
       <c r="M28">
         <f t="shared" si="1"/>
-        <v>-12.707999999999998</v>
+        <v>0</v>
       </c>
       <c r="O28">
         <f t="shared" si="2"/>
-        <v>-9.8278999999999836</v>
+        <v>2.8801000000000148</v>
       </c>
       <c r="P28">
         <f t="shared" si="3"/>
-        <v>412</v>
+        <v>372</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
@@ -19165,9 +19131,6 @@
       <c r="D29" t="s">
         <v>65</v>
       </c>
-      <c r="E29">
-        <v>0.316</v>
-      </c>
       <c r="F29" t="s">
         <v>449</v>
       </c>
@@ -19187,21 +19150,17 @@
         <f>(O$1+SUM(N$2:N29))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L29" s="3">
-        <f t="shared" si="0"/>
-        <v>-41</v>
-      </c>
       <c r="M29">
         <f t="shared" si="1"/>
-        <v>-12.956</v>
+        <v>0</v>
       </c>
       <c r="O29">
         <f t="shared" si="2"/>
-        <v>-22.783899999999981</v>
+        <v>2.8801000000000148</v>
       </c>
       <c r="P29">
         <f t="shared" si="3"/>
-        <v>453</v>
+        <v>372</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
@@ -19217,9 +19176,6 @@
       <c r="D30" t="s">
         <v>152</v>
       </c>
-      <c r="E30">
-        <v>0.317</v>
-      </c>
       <c r="F30" t="s">
         <v>453</v>
       </c>
@@ -19239,21 +19195,17 @@
         <f>(O$1+SUM(N$2:N30))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L30" s="3">
-        <f t="shared" si="0"/>
-        <v>-41</v>
-      </c>
       <c r="M30">
         <f t="shared" si="1"/>
-        <v>-12.997</v>
+        <v>0</v>
       </c>
       <c r="O30">
         <f t="shared" si="2"/>
-        <v>-35.780899999999981</v>
+        <v>2.8801000000000148</v>
       </c>
       <c r="P30">
         <f t="shared" si="3"/>
-        <v>494</v>
+        <v>372</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
@@ -19269,9 +19221,6 @@
       <c r="D31" t="s">
         <v>151</v>
       </c>
-      <c r="E31">
-        <v>0.31659999999999999</v>
-      </c>
       <c r="F31" t="s">
         <v>457</v>
       </c>
@@ -19291,21 +19240,17 @@
         <f>(O$1+SUM(N$2:N31))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L31" s="3">
-        <f t="shared" si="0"/>
-        <v>-41</v>
-      </c>
       <c r="M31">
         <f t="shared" si="1"/>
-        <v>-12.980599999999999</v>
+        <v>0</v>
       </c>
       <c r="O31">
         <f t="shared" si="2"/>
-        <v>-48.761499999999984</v>
+        <v>2.8801000000000148</v>
       </c>
       <c r="P31">
         <f t="shared" si="3"/>
-        <v>535</v>
+        <v>372</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
@@ -19321,9 +19266,6 @@
       <c r="D32" t="s">
         <v>147</v>
       </c>
-      <c r="E32">
-        <v>0.31480000000000002</v>
-      </c>
       <c r="F32" t="s">
         <v>461</v>
       </c>
@@ -19343,21 +19285,17 @@
         <f>(O$1+SUM(N$2:N32))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L32" s="3">
-        <f t="shared" si="0"/>
-        <v>-41</v>
-      </c>
       <c r="M32">
         <f t="shared" si="1"/>
-        <v>-12.9068</v>
+        <v>0</v>
       </c>
       <c r="O32">
         <f t="shared" si="2"/>
-        <v>-61.668299999999988</v>
+        <v>2.8801000000000148</v>
       </c>
       <c r="P32">
         <f t="shared" si="3"/>
-        <v>576</v>
+        <v>372</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
@@ -19373,9 +19311,6 @@
       <c r="D33" t="s">
         <v>64</v>
       </c>
-      <c r="E33">
-        <v>0.31090000000000001</v>
-      </c>
       <c r="F33" t="s">
         <v>465</v>
       </c>
@@ -19395,21 +19330,17 @@
         <f>(O$1+SUM(N$2:N33))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L33" s="3">
-        <f t="shared" si="0"/>
-        <v>-41</v>
-      </c>
       <c r="M33">
         <f t="shared" si="1"/>
-        <v>-12.7469</v>
+        <v>0</v>
       </c>
       <c r="O33">
         <f t="shared" si="2"/>
-        <v>-74.415199999999984</v>
+        <v>2.8801000000000148</v>
       </c>
       <c r="P33">
         <f t="shared" si="3"/>
-        <v>617</v>
+        <v>372</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
@@ -19425,9 +19356,6 @@
       <c r="D34" t="s">
         <v>63</v>
       </c>
-      <c r="E34">
-        <v>0.31109999999999999</v>
-      </c>
       <c r="F34" t="s">
         <v>469</v>
       </c>
@@ -19447,21 +19375,17 @@
         <f>(O$1+SUM(N$2:N34))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L34" s="3">
-        <f t="shared" si="0"/>
-        <v>-41</v>
-      </c>
       <c r="M34">
         <f t="shared" si="1"/>
-        <v>-12.755099999999999</v>
+        <v>0</v>
       </c>
       <c r="O34">
         <f t="shared" si="2"/>
-        <v>-87.170299999999983</v>
+        <v>2.8801000000000148</v>
       </c>
       <c r="P34">
         <f t="shared" si="3"/>
-        <v>658</v>
+        <v>372</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
@@ -19477,9 +19401,6 @@
       <c r="D35" t="s">
         <v>66</v>
       </c>
-      <c r="E35">
-        <v>0.31</v>
-      </c>
       <c r="F35" t="s">
         <v>473</v>
       </c>
@@ -19499,21 +19420,17 @@
         <f>(O$1+SUM(N$2:N35))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L35" s="3">
-        <f t="shared" si="0"/>
-        <v>-41</v>
-      </c>
       <c r="M35">
         <f t="shared" si="1"/>
-        <v>-12.709999999999999</v>
+        <v>0</v>
       </c>
       <c r="O35">
         <f t="shared" si="2"/>
-        <v>-99.880299999999977</v>
+        <v>2.8801000000000148</v>
       </c>
       <c r="P35">
         <f t="shared" si="3"/>
-        <v>699</v>
+        <v>372</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
@@ -19529,9 +19446,6 @@
       <c r="D36" t="s">
         <v>132</v>
       </c>
-      <c r="E36">
-        <v>0.25979999999999998</v>
-      </c>
       <c r="F36" t="s">
         <v>477</v>
       </c>
@@ -19551,21 +19465,17 @@
         <f>(O$1+SUM(N$2:N36))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L36" s="3">
-        <f t="shared" si="0"/>
-        <v>-50</v>
-      </c>
       <c r="M36">
         <f t="shared" si="1"/>
-        <v>-12.989999999999998</v>
+        <v>0</v>
       </c>
       <c r="O36">
         <f t="shared" si="2"/>
-        <v>-112.87029999999997</v>
+        <v>2.8801000000000148</v>
       </c>
       <c r="P36">
         <f t="shared" si="3"/>
-        <v>749</v>
+        <v>372</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
@@ -19581,9 +19491,6 @@
       <c r="D37" t="s">
         <v>488</v>
       </c>
-      <c r="E37">
-        <v>0.2122</v>
-      </c>
       <c r="F37" t="s">
         <v>489</v>
       </c>
@@ -19603,21 +19510,17 @@
         <f>(O$1+SUM(N$2:N37))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L37" s="3">
-        <f t="shared" si="0"/>
-        <v>-61</v>
-      </c>
       <c r="M37">
         <f t="shared" si="1"/>
-        <v>-12.9442</v>
+        <v>0</v>
       </c>
       <c r="O37">
         <f t="shared" si="2"/>
-        <v>-125.81449999999997</v>
+        <v>2.8801000000000148</v>
       </c>
       <c r="P37">
         <f t="shared" si="3"/>
-        <v>810</v>
+        <v>372</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
@@ -19633,9 +19536,6 @@
       <c r="D38" t="s">
         <v>495</v>
       </c>
-      <c r="E38">
-        <v>0.21099999999999999</v>
-      </c>
       <c r="F38" t="s">
         <v>496</v>
       </c>
@@ -19655,21 +19555,17 @@
         <f>(O$1+SUM(N$2:N38))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L38" s="3">
-        <f t="shared" si="0"/>
-        <v>-61</v>
-      </c>
       <c r="M38">
         <f t="shared" si="1"/>
-        <v>-12.871</v>
+        <v>0</v>
       </c>
       <c r="O38">
         <f t="shared" si="2"/>
-        <v>-138.68549999999996</v>
+        <v>2.8801000000000148</v>
       </c>
       <c r="P38">
         <f t="shared" si="3"/>
-        <v>871</v>
+        <v>372</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
@@ -19685,9 +19581,6 @@
       <c r="D39" t="s">
         <v>189</v>
       </c>
-      <c r="E39">
-        <v>0.2492</v>
-      </c>
       <c r="F39" t="s">
         <v>511</v>
       </c>
@@ -19707,21 +19600,17 @@
         <f>(O$1+SUM(N$2:N39))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L39" s="3">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
       <c r="M39">
         <f t="shared" si="1"/>
-        <v>12.958400000000001</v>
+        <v>0</v>
       </c>
       <c r="O39">
         <f t="shared" si="2"/>
-        <v>-125.72709999999996</v>
+        <v>2.8801000000000148</v>
       </c>
       <c r="P39">
         <f t="shared" si="3"/>
-        <v>819</v>
+        <v>372</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
@@ -19737,9 +19626,6 @@
       <c r="D40" t="s">
         <v>233</v>
       </c>
-      <c r="E40">
-        <v>0.25069999999999998</v>
-      </c>
       <c r="F40" t="s">
         <v>515</v>
       </c>
@@ -19759,21 +19645,17 @@
         <f>(O$1+SUM(N$2:N40))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L40" s="3">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
       <c r="M40">
         <f t="shared" si="1"/>
-        <v>12.785699999999999</v>
+        <v>0</v>
       </c>
       <c r="O40">
         <f t="shared" si="2"/>
-        <v>-112.94139999999996</v>
+        <v>2.8801000000000148</v>
       </c>
       <c r="P40">
         <f t="shared" si="3"/>
-        <v>768</v>
+        <v>372</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
@@ -19811,21 +19693,17 @@
         <f>(O$1+SUM(N$2:N41))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L41" s="3">
-        <f t="shared" si="0"/>
-        <v>-51</v>
-      </c>
       <c r="M41">
         <f t="shared" si="1"/>
-        <v>-12.7806</v>
+        <v>0</v>
       </c>
       <c r="O41">
         <f t="shared" si="2"/>
-        <v>-125.72199999999995</v>
+        <v>2.8801000000000148</v>
       </c>
       <c r="P41">
         <f t="shared" si="3"/>
-        <v>819</v>
+        <v>372</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
@@ -19863,21 +19741,17 @@
         <f>(O$1+SUM(N$2:N42))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L42" s="3">
-        <f t="shared" ref="L42:L105" si="4">IF(J42="buy",-ROUNDDOWN(K42/E42,0),ROUNDDOWN(K42/E42,0))</f>
-        <v>-52</v>
-      </c>
       <c r="M42">
         <f t="shared" si="1"/>
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="O42">
         <f t="shared" si="2"/>
-        <v>-138.72199999999995</v>
+        <v>2.8801000000000148</v>
       </c>
       <c r="P42">
         <f t="shared" si="3"/>
-        <v>871</v>
+        <v>372</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
@@ -19915,21 +19789,17 @@
         <f>(O$1+SUM(N$2:N43))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L43" s="3">
-        <f t="shared" si="4"/>
-        <v>-55</v>
-      </c>
       <c r="M43">
-        <f t="shared" ref="M43:M106" si="5">L43*E43</f>
-        <v>-12.8645</v>
+        <f t="shared" ref="M43:M106" si="4">L43*E43</f>
+        <v>0</v>
       </c>
       <c r="O43">
         <f t="shared" si="2"/>
-        <v>-151.58649999999994</v>
+        <v>2.8801000000000148</v>
       </c>
       <c r="P43">
         <f t="shared" si="3"/>
-        <v>926</v>
+        <v>372</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
@@ -19967,21 +19837,17 @@
         <f>(O$1+SUM(N$2:N44))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44">
         <f t="shared" si="4"/>
-        <v>-55</v>
-      </c>
-      <c r="M44">
-        <f t="shared" si="5"/>
-        <v>-12.8645</v>
+        <v>0</v>
       </c>
       <c r="O44">
-        <f t="shared" ref="O44:O107" si="6">O43+M44</f>
-        <v>-164.45099999999994</v>
+        <f t="shared" ref="O44:O107" si="5">O43+M44</f>
+        <v>2.8801000000000148</v>
       </c>
       <c r="P44">
-        <f t="shared" ref="P44:P107" si="7">P43-L44</f>
-        <v>981</v>
+        <f t="shared" ref="P44:P107" si="6">P43-L44</f>
+        <v>372</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
@@ -20019,21 +19885,17 @@
         <f>(O$1+SUM(N$2:N45))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45">
         <f t="shared" si="4"/>
-        <v>-55</v>
-      </c>
-      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="O45">
         <f t="shared" si="5"/>
-        <v>-12.848000000000001</v>
-      </c>
-      <c r="O45">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P45">
         <f t="shared" si="6"/>
-        <v>-177.29899999999995</v>
-      </c>
-      <c r="P45">
-        <f t="shared" si="7"/>
-        <v>1036</v>
+        <v>372</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
@@ -20071,21 +19933,17 @@
         <f>(O$1+SUM(N$2:N46))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46">
         <f t="shared" si="4"/>
-        <v>-55</v>
-      </c>
-      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="O46">
         <f t="shared" si="5"/>
-        <v>-12.897499999999999</v>
-      </c>
-      <c r="O46">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P46">
         <f t="shared" si="6"/>
-        <v>-190.19649999999996</v>
-      </c>
-      <c r="P46">
-        <f t="shared" si="7"/>
-        <v>1091</v>
+        <v>372</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
@@ -20123,21 +19981,17 @@
         <f>(O$1+SUM(N$2:N47))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47">
         <f t="shared" si="4"/>
-        <v>-55</v>
-      </c>
-      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="O47">
         <f t="shared" si="5"/>
-        <v>-12.8315</v>
-      </c>
-      <c r="O47">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P47">
         <f t="shared" si="6"/>
-        <v>-203.02799999999996</v>
-      </c>
-      <c r="P47">
-        <f t="shared" si="7"/>
-        <v>1146</v>
+        <v>372</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
@@ -20175,21 +20029,17 @@
         <f>(O$1+SUM(N$2:N48))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48">
         <f t="shared" si="4"/>
-        <v>47</v>
-      </c>
-      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="O48">
         <f t="shared" si="5"/>
-        <v>12.7652</v>
-      </c>
-      <c r="O48">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P48">
         <f t="shared" si="6"/>
-        <v>-190.26279999999997</v>
-      </c>
-      <c r="P48">
-        <f t="shared" si="7"/>
-        <v>1099</v>
+        <v>372</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
@@ -20227,21 +20077,17 @@
         <f>(O$1+SUM(N$2:N49))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49">
         <f t="shared" si="4"/>
-        <v>47</v>
-      </c>
-      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="O49">
         <f t="shared" si="5"/>
-        <v>12.859200000000001</v>
-      </c>
-      <c r="O49">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P49">
         <f t="shared" si="6"/>
-        <v>-177.40359999999998</v>
-      </c>
-      <c r="P49">
-        <f t="shared" si="7"/>
-        <v>1052</v>
+        <v>372</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
@@ -20279,21 +20125,17 @@
         <f>(O$1+SUM(N$2:N50))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L50" s="3">
+      <c r="M50">
         <f t="shared" si="4"/>
-        <v>47</v>
-      </c>
-      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="O50">
         <f t="shared" si="5"/>
-        <v>12.8874</v>
-      </c>
-      <c r="O50">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P50">
         <f t="shared" si="6"/>
-        <v>-164.51619999999997</v>
-      </c>
-      <c r="P50">
-        <f t="shared" si="7"/>
-        <v>1005</v>
+        <v>372</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
@@ -20331,21 +20173,17 @@
         <f>(O$1+SUM(N$2:N51))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L51" s="3">
+      <c r="M51">
         <f t="shared" si="4"/>
-        <v>47</v>
-      </c>
-      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="O51">
         <f t="shared" si="5"/>
-        <v>12.863899999999999</v>
-      </c>
-      <c r="O51">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P51">
         <f t="shared" si="6"/>
-        <v>-151.65229999999997</v>
-      </c>
-      <c r="P51">
-        <f t="shared" si="7"/>
-        <v>958</v>
+        <v>372</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
@@ -20383,21 +20221,17 @@
         <f>(O$1+SUM(N$2:N52))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52">
         <f t="shared" si="4"/>
-        <v>47</v>
-      </c>
-      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="O52">
         <f t="shared" si="5"/>
-        <v>12.845099999999999</v>
-      </c>
-      <c r="O52">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P52">
         <f t="shared" si="6"/>
-        <v>-138.80719999999997</v>
-      </c>
-      <c r="P52">
-        <f t="shared" si="7"/>
-        <v>911</v>
+        <v>372</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
@@ -20435,21 +20269,17 @@
         <f>(O$1+SUM(N$2:N53))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L53" s="3">
+      <c r="M53">
         <f t="shared" si="4"/>
-        <v>-56</v>
-      </c>
-      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="O53">
         <f t="shared" si="5"/>
-        <v>-12.784800000000001</v>
-      </c>
-      <c r="O53">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P53">
         <f t="shared" si="6"/>
-        <v>-151.59199999999996</v>
-      </c>
-      <c r="P53">
-        <f t="shared" si="7"/>
-        <v>967</v>
+        <v>372</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
@@ -20487,21 +20317,17 @@
         <f>(O$1+SUM(N$2:N54))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54">
         <f t="shared" si="4"/>
-        <v>-57</v>
-      </c>
-      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="O54">
         <f t="shared" si="5"/>
-        <v>-12.8421</v>
-      </c>
-      <c r="O54">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P54">
         <f t="shared" si="6"/>
-        <v>-164.43409999999994</v>
-      </c>
-      <c r="P54">
-        <f t="shared" si="7"/>
-        <v>1024</v>
+        <v>372</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
@@ -20539,21 +20365,17 @@
         <f>(O$1+SUM(N$2:N55))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L55" s="3">
+      <c r="M55">
         <f t="shared" si="4"/>
-        <v>-58</v>
-      </c>
-      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="O55">
         <f t="shared" si="5"/>
-        <v>-12.957199999999998</v>
-      </c>
-      <c r="O55">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P55">
         <f t="shared" si="6"/>
-        <v>-177.39129999999994</v>
-      </c>
-      <c r="P55">
-        <f t="shared" si="7"/>
-        <v>1082</v>
+        <v>372</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
@@ -20591,21 +20413,17 @@
         <f>(O$1+SUM(N$2:N56))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L56" s="3">
+      <c r="M56">
         <f t="shared" si="4"/>
-        <v>-58</v>
-      </c>
-      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="O56">
         <f t="shared" si="5"/>
-        <v>-12.9108</v>
-      </c>
-      <c r="O56">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P56">
         <f t="shared" si="6"/>
-        <v>-190.30209999999994</v>
-      </c>
-      <c r="P56">
-        <f t="shared" si="7"/>
-        <v>1140</v>
+        <v>372</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
@@ -20643,21 +20461,17 @@
         <f>(O$1+SUM(N$2:N57))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57">
         <f t="shared" si="4"/>
-        <v>-60</v>
-      </c>
-      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="O57">
         <f t="shared" si="5"/>
-        <v>-12.917999999999999</v>
-      </c>
-      <c r="O57">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P57">
         <f t="shared" si="6"/>
-        <v>-203.22009999999995</v>
-      </c>
-      <c r="P57">
-        <f t="shared" si="7"/>
-        <v>1200</v>
+        <v>372</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
@@ -20695,21 +20509,17 @@
         <f>(O$1+SUM(N$2:N58))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58">
         <f t="shared" si="4"/>
-        <v>-60</v>
-      </c>
-      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="O58">
         <f t="shared" si="5"/>
-        <v>-12.959999999999999</v>
-      </c>
-      <c r="O58">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P58">
         <f t="shared" si="6"/>
-        <v>-216.18009999999995</v>
-      </c>
-      <c r="P58">
-        <f t="shared" si="7"/>
-        <v>1260</v>
+        <v>372</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
@@ -20747,21 +20557,17 @@
         <f>(O$1+SUM(N$2:N59))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59">
         <f t="shared" si="4"/>
-        <v>-60</v>
-      </c>
-      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="O59">
         <f t="shared" si="5"/>
-        <v>-12.959999999999999</v>
-      </c>
-      <c r="O59">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P59">
         <f t="shared" si="6"/>
-        <v>-229.14009999999996</v>
-      </c>
-      <c r="P59">
-        <f t="shared" si="7"/>
-        <v>1320</v>
+        <v>372</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
@@ -20799,21 +20605,17 @@
         <f>(O$1+SUM(N$2:N60))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60">
         <f t="shared" si="4"/>
-        <v>-60</v>
-      </c>
-      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="O60">
         <f t="shared" si="5"/>
-        <v>-12.924000000000001</v>
-      </c>
-      <c r="O60">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P60">
         <f t="shared" si="6"/>
-        <v>-242.06409999999997</v>
-      </c>
-      <c r="P60">
-        <f t="shared" si="7"/>
-        <v>1380</v>
+        <v>372</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
@@ -20851,21 +20653,17 @@
         <f>(O$1+SUM(N$2:N61))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61">
         <f t="shared" si="4"/>
-        <v>66</v>
-      </c>
-      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="O61">
         <f t="shared" si="5"/>
-        <v>12.969000000000001</v>
-      </c>
-      <c r="O61">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P61">
         <f t="shared" si="6"/>
-        <v>-229.09509999999997</v>
-      </c>
-      <c r="P61">
-        <f t="shared" si="7"/>
-        <v>1314</v>
+        <v>372</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
@@ -20903,21 +20701,17 @@
         <f>(O$1+SUM(N$2:N62))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62">
         <f t="shared" si="4"/>
-        <v>64</v>
-      </c>
-      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="O62">
         <f t="shared" si="5"/>
-        <v>12.9152</v>
-      </c>
-      <c r="O62">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P62">
         <f t="shared" si="6"/>
-        <v>-216.17989999999998</v>
-      </c>
-      <c r="P62">
-        <f t="shared" si="7"/>
-        <v>1250</v>
+        <v>372</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
@@ -20955,21 +20749,17 @@
         <f>(O$1+SUM(N$2:N63))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L63" s="3">
+      <c r="M63">
         <f t="shared" si="4"/>
-        <v>64</v>
-      </c>
-      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="O63">
         <f t="shared" si="5"/>
-        <v>12.96</v>
-      </c>
-      <c r="O63">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P63">
         <f t="shared" si="6"/>
-        <v>-203.21989999999997</v>
-      </c>
-      <c r="P63">
-        <f t="shared" si="7"/>
-        <v>1186</v>
+        <v>372</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
@@ -21007,21 +20797,17 @@
         <f>(O$1+SUM(N$2:N64))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L64" s="3">
+      <c r="M64">
         <f t="shared" si="4"/>
-        <v>64</v>
-      </c>
-      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="O64">
         <f t="shared" si="5"/>
-        <v>12.940799999999999</v>
-      </c>
-      <c r="O64">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P64">
         <f t="shared" si="6"/>
-        <v>-190.27909999999997</v>
-      </c>
-      <c r="P64">
-        <f t="shared" si="7"/>
-        <v>1122</v>
+        <v>372</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
@@ -21059,21 +20845,17 @@
         <f>(O$1+SUM(N$2:N65))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L65" s="3">
+      <c r="M65">
         <f t="shared" si="4"/>
-        <v>-66</v>
-      </c>
-      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="O65">
         <f t="shared" si="5"/>
-        <v>-12.949200000000001</v>
-      </c>
-      <c r="O65">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P65">
         <f t="shared" si="6"/>
-        <v>-203.22829999999996</v>
-      </c>
-      <c r="P65">
-        <f t="shared" si="7"/>
-        <v>1188</v>
+        <v>372</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
@@ -21111,21 +20893,17 @@
         <f>(O$1+SUM(N$2:N66))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66">
         <f t="shared" si="4"/>
-        <v>-66</v>
-      </c>
-      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="O66">
         <f t="shared" si="5"/>
-        <v>-12.942600000000001</v>
-      </c>
-      <c r="O66">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P66">
         <f t="shared" si="6"/>
-        <v>-216.17089999999996</v>
-      </c>
-      <c r="P66">
-        <f t="shared" si="7"/>
-        <v>1254</v>
+        <v>372</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
@@ -21163,21 +20941,17 @@
         <f>(O$1+SUM(N$2:N67))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L67" s="3">
+      <c r="M67">
         <f t="shared" si="4"/>
-        <v>-66</v>
-      </c>
-      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="O67">
         <f t="shared" si="5"/>
-        <v>-12.916200000000002</v>
-      </c>
-      <c r="O67">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P67">
         <f t="shared" si="6"/>
-        <v>-229.08709999999996</v>
-      </c>
-      <c r="P67">
-        <f t="shared" si="7"/>
-        <v>1320</v>
+        <v>372</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
@@ -21215,21 +20989,17 @@
         <f>(O$1+SUM(N$2:N68))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L68" s="3">
+      <c r="M68">
         <f t="shared" si="4"/>
-        <v>-66</v>
-      </c>
-      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="O68">
         <f t="shared" si="5"/>
-        <v>-12.936</v>
-      </c>
-      <c r="O68">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P68">
         <f t="shared" si="6"/>
-        <v>-242.02309999999997</v>
-      </c>
-      <c r="P68">
-        <f t="shared" si="7"/>
-        <v>1386</v>
+        <v>372</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
@@ -21267,21 +21037,17 @@
         <f>(O$1+SUM(N$2:N69))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L69" s="3">
+      <c r="M69">
         <f t="shared" si="4"/>
-        <v>-66</v>
-      </c>
-      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="O69">
         <f t="shared" si="5"/>
-        <v>-12.916200000000002</v>
-      </c>
-      <c r="O69">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P69">
         <f t="shared" si="6"/>
-        <v>-254.93929999999997</v>
-      </c>
-      <c r="P69">
-        <f t="shared" si="7"/>
-        <v>1452</v>
+        <v>372</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
@@ -21319,21 +21085,17 @@
         <f>(O$1+SUM(N$2:N70))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70">
         <f t="shared" si="4"/>
-        <v>-66</v>
-      </c>
-      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="O70">
         <f t="shared" si="5"/>
-        <v>-12.916200000000002</v>
-      </c>
-      <c r="O70">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P70">
         <f t="shared" si="6"/>
-        <v>-267.85549999999995</v>
-      </c>
-      <c r="P70">
-        <f t="shared" si="7"/>
-        <v>1518</v>
+        <v>372</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
@@ -21371,21 +21133,17 @@
         <f>(O$1+SUM(N$2:N71))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L71" s="3">
+      <c r="M71">
         <f t="shared" si="4"/>
-        <v>-66</v>
-      </c>
-      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="O71">
         <f t="shared" si="5"/>
-        <v>-12.8568</v>
-      </c>
-      <c r="O71">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P71">
         <f t="shared" si="6"/>
-        <v>-280.71229999999997</v>
-      </c>
-      <c r="P71">
-        <f t="shared" si="7"/>
-        <v>1584</v>
+        <v>372</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
@@ -21423,21 +21181,17 @@
         <f>(O$1+SUM(N$2:N72))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72">
         <f t="shared" si="4"/>
-        <v>-66</v>
-      </c>
-      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="O72">
         <f t="shared" si="5"/>
-        <v>-12.8238</v>
-      </c>
-      <c r="O72">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P72">
         <f t="shared" si="6"/>
-        <v>-293.53609999999998</v>
-      </c>
-      <c r="P72">
-        <f t="shared" si="7"/>
-        <v>1650</v>
+        <v>372</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
@@ -21475,21 +21229,17 @@
         <f>(O$1+SUM(N$2:N73))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L73" s="3">
+      <c r="M73">
         <f t="shared" si="4"/>
-        <v>-66</v>
-      </c>
-      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="O73">
         <f t="shared" si="5"/>
-        <v>-12.8832</v>
-      </c>
-      <c r="O73">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P73">
         <f t="shared" si="6"/>
-        <v>-306.41929999999996</v>
-      </c>
-      <c r="P73">
-        <f t="shared" si="7"/>
-        <v>1716</v>
+        <v>372</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
@@ -21527,21 +21277,17 @@
         <f>(O$1+SUM(N$2:N74))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L74" s="3">
+      <c r="M74">
         <f t="shared" si="4"/>
-        <v>-68</v>
-      </c>
-      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="O74">
         <f t="shared" si="5"/>
-        <v>-12.967600000000001</v>
-      </c>
-      <c r="O74">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P74">
         <f t="shared" si="6"/>
-        <v>-319.38689999999997</v>
-      </c>
-      <c r="P74">
-        <f t="shared" si="7"/>
-        <v>1784</v>
+        <v>372</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.3">
@@ -21579,21 +21325,17 @@
         <f>(O$1+SUM(N$2:N75))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L75" s="3">
+      <c r="M75">
         <f t="shared" si="4"/>
-        <v>-89</v>
-      </c>
-      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="O75">
         <f t="shared" si="5"/>
-        <v>-12.949499999999999</v>
-      </c>
-      <c r="O75">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P75">
         <f t="shared" si="6"/>
-        <v>-332.33639999999997</v>
-      </c>
-      <c r="P75">
-        <f t="shared" si="7"/>
-        <v>1873</v>
+        <v>372</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
@@ -21631,21 +21373,17 @@
         <f>(O$1+SUM(N$2:N76))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76">
         <f t="shared" si="4"/>
-        <v>-89</v>
-      </c>
-      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="O76">
         <f t="shared" si="5"/>
-        <v>-12.9673</v>
-      </c>
-      <c r="O76">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P76">
         <f t="shared" si="6"/>
-        <v>-345.30369999999999</v>
-      </c>
-      <c r="P76">
-        <f t="shared" si="7"/>
-        <v>1962</v>
+        <v>372</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.3">
@@ -21683,21 +21421,17 @@
         <f>(O$1+SUM(N$2:N77))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L77" s="3">
+      <c r="M77">
         <f t="shared" si="4"/>
-        <v>-90</v>
-      </c>
-      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="O77">
         <f t="shared" si="5"/>
-        <v>-13.004999999999999</v>
-      </c>
-      <c r="O77">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P77">
         <f t="shared" si="6"/>
-        <v>-358.30869999999999</v>
-      </c>
-      <c r="P77">
-        <f t="shared" si="7"/>
-        <v>2052</v>
+        <v>372</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.3">
@@ -21735,21 +21469,17 @@
         <f>(O$1+SUM(N$2:N78))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L78" s="3">
+      <c r="M78">
         <f t="shared" si="4"/>
-        <v>82</v>
-      </c>
-      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="O78">
         <f t="shared" si="5"/>
-        <v>12.956</v>
-      </c>
-      <c r="O78">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P78">
         <f t="shared" si="6"/>
-        <v>-345.35269999999997</v>
-      </c>
-      <c r="P78">
-        <f t="shared" si="7"/>
-        <v>1970</v>
+        <v>372</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.3">
@@ -21787,21 +21517,17 @@
         <f>(O$1+SUM(N$2:N79))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L79" s="3">
+      <c r="M79">
         <f t="shared" si="4"/>
-        <v>82</v>
-      </c>
-      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="O79">
         <f t="shared" si="5"/>
-        <v>12.9068</v>
-      </c>
-      <c r="O79">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P79">
         <f t="shared" si="6"/>
-        <v>-332.44589999999999</v>
-      </c>
-      <c r="P79">
-        <f t="shared" si="7"/>
-        <v>1888</v>
+        <v>372</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.3">
@@ -21839,21 +21565,17 @@
         <f>(O$1+SUM(N$2:N80))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L80" s="3">
+      <c r="M80">
         <f t="shared" si="4"/>
-        <v>82</v>
-      </c>
-      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="O80">
         <f t="shared" si="5"/>
-        <v>12.9724</v>
-      </c>
-      <c r="O80">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P80">
         <f t="shared" si="6"/>
-        <v>-319.4735</v>
-      </c>
-      <c r="P80">
-        <f t="shared" si="7"/>
-        <v>1806</v>
+        <v>372</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.3">
@@ -21891,21 +21613,17 @@
         <f>(O$1+SUM(N$2:N81))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81">
         <f t="shared" si="4"/>
-        <v>82</v>
-      </c>
-      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="O81">
         <f t="shared" si="5"/>
-        <v>12.9396</v>
-      </c>
-      <c r="O81">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P81">
         <f t="shared" si="6"/>
-        <v>-306.53390000000002</v>
-      </c>
-      <c r="P81">
-        <f t="shared" si="7"/>
-        <v>1724</v>
+        <v>372</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.3">
@@ -21943,21 +21661,17 @@
         <f>(O$1+SUM(N$2:N82))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L82" s="3">
+      <c r="M82">
         <f t="shared" si="4"/>
-        <v>76</v>
-      </c>
-      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="O82">
         <f t="shared" si="5"/>
-        <v>12.958</v>
-      </c>
-      <c r="O82">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P82">
         <f t="shared" si="6"/>
-        <v>-293.57589999999999</v>
-      </c>
-      <c r="P82">
-        <f t="shared" si="7"/>
-        <v>1648</v>
+        <v>372</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.3">
@@ -21995,21 +21709,17 @@
         <f>(O$1+SUM(N$2:N83))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83">
         <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="O83">
         <f t="shared" si="5"/>
-        <v>12.862500000000001</v>
-      </c>
-      <c r="O83">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P83">
         <f t="shared" si="6"/>
-        <v>-280.71339999999998</v>
-      </c>
-      <c r="P83">
-        <f t="shared" si="7"/>
-        <v>1573</v>
+        <v>372</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.3">
@@ -22047,21 +21757,17 @@
         <f>(O$1+SUM(N$2:N84))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L84" s="3">
+      <c r="M84">
         <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="O84">
         <f t="shared" si="5"/>
-        <v>12.9975</v>
-      </c>
-      <c r="O84">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P84">
         <f t="shared" si="6"/>
-        <v>-267.71589999999998</v>
-      </c>
-      <c r="P84">
-        <f t="shared" si="7"/>
-        <v>1498</v>
+        <v>372</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.3">
@@ -22099,21 +21805,17 @@
         <f>(O$1+SUM(N$2:N85))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L85" s="3">
+      <c r="M85">
         <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="O85">
         <f t="shared" si="5"/>
-        <v>12.975</v>
-      </c>
-      <c r="O85">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P85">
         <f t="shared" si="6"/>
-        <v>-254.74089999999998</v>
-      </c>
-      <c r="P85">
-        <f t="shared" si="7"/>
-        <v>1423</v>
+        <v>372</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.3">
@@ -22151,21 +21853,17 @@
         <f>(O$1+SUM(N$2:N86))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L86" s="3">
+      <c r="M86">
         <f t="shared" si="4"/>
-        <v>74</v>
-      </c>
-      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="O86">
         <f t="shared" si="5"/>
-        <v>12.9352</v>
-      </c>
-      <c r="O86">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P86">
         <f t="shared" si="6"/>
-        <v>-241.80569999999997</v>
-      </c>
-      <c r="P86">
-        <f t="shared" si="7"/>
-        <v>1349</v>
+        <v>372</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.3">
@@ -22203,21 +21901,17 @@
         <f>(O$1+SUM(N$2:N87))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L87" s="3">
+      <c r="M87">
         <f t="shared" si="4"/>
-        <v>61</v>
-      </c>
-      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="O87">
         <f t="shared" si="5"/>
-        <v>12.9991</v>
-      </c>
-      <c r="O87">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P87">
         <f t="shared" si="6"/>
-        <v>-228.80659999999997</v>
-      </c>
-      <c r="P87">
-        <f t="shared" si="7"/>
-        <v>1288</v>
+        <v>372</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.3">
@@ -22255,21 +21949,17 @@
         <f>(O$1+SUM(N$2:N88))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L88" s="3">
+      <c r="M88">
         <f t="shared" si="4"/>
-        <v>60</v>
-      </c>
-      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="O88">
         <f t="shared" si="5"/>
-        <v>12.87</v>
-      </c>
-      <c r="O88">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P88">
         <f t="shared" si="6"/>
-        <v>-215.93659999999997</v>
-      </c>
-      <c r="P88">
-        <f t="shared" si="7"/>
-        <v>1228</v>
+        <v>372</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.3">
@@ -22307,21 +21997,17 @@
         <f>(O$1+SUM(N$2:N89))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89">
         <f t="shared" si="4"/>
-        <v>60</v>
-      </c>
-      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="O89">
         <f t="shared" si="5"/>
-        <v>12.9</v>
-      </c>
-      <c r="O89">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P89">
         <f t="shared" si="6"/>
-        <v>-203.03659999999996</v>
-      </c>
-      <c r="P89">
-        <f t="shared" si="7"/>
-        <v>1168</v>
+        <v>372</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.3">
@@ -22359,21 +22045,17 @@
         <f>(O$1+SUM(N$2:N90))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L90" s="3">
+      <c r="M90">
         <f t="shared" si="4"/>
-        <v>60</v>
-      </c>
-      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="O90">
         <f t="shared" si="5"/>
-        <v>13.002000000000001</v>
-      </c>
-      <c r="O90">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P90">
         <f t="shared" si="6"/>
-        <v>-190.03459999999995</v>
-      </c>
-      <c r="P90">
-        <f t="shared" si="7"/>
-        <v>1108</v>
+        <v>372</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.3">
@@ -22411,21 +22093,17 @@
         <f>(O$1+SUM(N$2:N91))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91">
         <f t="shared" si="4"/>
-        <v>-62</v>
-      </c>
-      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="O91">
         <f t="shared" si="5"/>
-        <v>-12.958</v>
-      </c>
-      <c r="O91">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P91">
         <f t="shared" si="6"/>
-        <v>-202.99259999999995</v>
-      </c>
-      <c r="P91">
-        <f t="shared" si="7"/>
-        <v>1170</v>
+        <v>372</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.3">
@@ -22463,21 +22141,17 @@
         <f>(O$1+SUM(N$2:N92))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L92" s="3">
+      <c r="M92">
         <f t="shared" si="4"/>
-        <v>-62</v>
-      </c>
-      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="O92">
         <f t="shared" si="5"/>
-        <v>-12.8588</v>
-      </c>
-      <c r="O92">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P92">
         <f t="shared" si="6"/>
-        <v>-215.85139999999996</v>
-      </c>
-      <c r="P92">
-        <f t="shared" si="7"/>
-        <v>1232</v>
+        <v>372</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.3">
@@ -22515,21 +22189,17 @@
         <f>(O$1+SUM(N$2:N93))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L93" s="3">
+      <c r="M93">
         <f t="shared" si="4"/>
-        <v>62</v>
-      </c>
-      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="O93">
         <f t="shared" si="5"/>
-        <v>12.945600000000001</v>
-      </c>
-      <c r="O93">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P93">
         <f t="shared" si="6"/>
-        <v>-202.90579999999994</v>
-      </c>
-      <c r="P93">
-        <f t="shared" si="7"/>
-        <v>1170</v>
+        <v>372</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.3">
@@ -22567,21 +22237,17 @@
         <f>(O$1+SUM(N$2:N94))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94">
         <f t="shared" si="4"/>
-        <v>62</v>
-      </c>
-      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="O94">
         <f t="shared" si="5"/>
-        <v>12.9518</v>
-      </c>
-      <c r="O94">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P94">
         <f t="shared" si="6"/>
-        <v>-189.95399999999995</v>
-      </c>
-      <c r="P94">
-        <f t="shared" si="7"/>
-        <v>1108</v>
+        <v>372</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.3">
@@ -22619,21 +22285,17 @@
         <f>(O$1+SUM(N$2:N95))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L95" s="3">
+      <c r="M95">
         <f t="shared" si="4"/>
-        <v>62</v>
-      </c>
-      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="O95">
         <f t="shared" si="5"/>
-        <v>12.988999999999999</v>
-      </c>
-      <c r="O95">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P95">
         <f t="shared" si="6"/>
-        <v>-176.96499999999995</v>
-      </c>
-      <c r="P95">
-        <f t="shared" si="7"/>
-        <v>1046</v>
+        <v>372</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.3">
@@ -22671,21 +22333,17 @@
         <f>(O$1+SUM(N$2:N96))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96">
         <f t="shared" si="4"/>
-        <v>62</v>
-      </c>
-      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="O96">
         <f t="shared" si="5"/>
-        <v>13.0014</v>
-      </c>
-      <c r="O96">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P96">
         <f t="shared" si="6"/>
-        <v>-163.96359999999996</v>
-      </c>
-      <c r="P96">
-        <f t="shared" si="7"/>
-        <v>984</v>
+        <v>372</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.3">
@@ -22723,21 +22381,17 @@
         <f>(O$1+SUM(N$2:N97))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L97" s="3">
+      <c r="M97">
         <f t="shared" si="4"/>
-        <v>61</v>
-      </c>
-      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="O97">
         <f t="shared" si="5"/>
-        <v>12.8161</v>
-      </c>
-      <c r="O97">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P97">
         <f t="shared" si="6"/>
-        <v>-151.14749999999995</v>
-      </c>
-      <c r="P97">
-        <f t="shared" si="7"/>
-        <v>923</v>
+        <v>372</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.3">
@@ -22775,21 +22429,17 @@
         <f>(O$1+SUM(N$2:N98))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L98" s="3">
+      <c r="M98">
         <f t="shared" si="4"/>
-        <v>61</v>
-      </c>
-      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="O98">
         <f t="shared" si="5"/>
-        <v>12.840499999999999</v>
-      </c>
-      <c r="O98">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P98">
         <f t="shared" si="6"/>
-        <v>-138.30699999999996</v>
-      </c>
-      <c r="P98">
-        <f t="shared" si="7"/>
-        <v>862</v>
+        <v>372</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.3">
@@ -22827,21 +22477,17 @@
         <f>(O$1+SUM(N$2:N99))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L99" s="3">
+      <c r="M99">
         <f t="shared" si="4"/>
-        <v>61</v>
-      </c>
-      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="O99">
         <f t="shared" si="5"/>
-        <v>12.9137</v>
-      </c>
-      <c r="O99">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P99">
         <f t="shared" si="6"/>
-        <v>-125.39329999999995</v>
-      </c>
-      <c r="P99">
-        <f t="shared" si="7"/>
-        <v>801</v>
+        <v>372</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.3">
@@ -22879,21 +22525,17 @@
         <f>(O$1+SUM(N$2:N100))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100">
         <f t="shared" si="4"/>
-        <v>56</v>
-      </c>
-      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="O100">
         <f t="shared" si="5"/>
-        <v>12.9808</v>
-      </c>
-      <c r="O100">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P100">
         <f t="shared" si="6"/>
-        <v>-112.41249999999995</v>
-      </c>
-      <c r="P100">
-        <f t="shared" si="7"/>
-        <v>745</v>
+        <v>372</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.3">
@@ -22931,21 +22573,17 @@
         <f>(O$1+SUM(N$2:N101))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101">
         <f t="shared" si="4"/>
-        <v>55</v>
-      </c>
-      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="O101">
         <f t="shared" si="5"/>
-        <v>12.798499999999999</v>
-      </c>
-      <c r="O101">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P101">
         <f t="shared" si="6"/>
-        <v>-99.613999999999947</v>
-      </c>
-      <c r="P101">
-        <f t="shared" si="7"/>
-        <v>690</v>
+        <v>372</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.3">
@@ -22983,21 +22621,17 @@
         <f>(O$1+SUM(N$2:N102))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102">
         <f t="shared" si="4"/>
-        <v>55</v>
-      </c>
-      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="O102">
         <f t="shared" si="5"/>
-        <v>12.804</v>
-      </c>
-      <c r="O102">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P102">
         <f t="shared" si="6"/>
-        <v>-86.809999999999945</v>
-      </c>
-      <c r="P102">
-        <f t="shared" si="7"/>
-        <v>635</v>
+        <v>372</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.3">
@@ -23035,21 +22669,17 @@
         <f>(O$1+SUM(N$2:N103))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L103" s="3">
+      <c r="M103">
         <f t="shared" si="4"/>
-        <v>55</v>
-      </c>
-      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="O103">
         <f t="shared" si="5"/>
-        <v>12.875500000000001</v>
-      </c>
-      <c r="O103">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P103">
         <f t="shared" si="6"/>
-        <v>-73.934499999999943</v>
-      </c>
-      <c r="P103">
-        <f t="shared" si="7"/>
-        <v>580</v>
+        <v>372</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.3">
@@ -23087,21 +22717,17 @@
         <f>(O$1+SUM(N$2:N104))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L104" s="3">
+      <c r="M104">
         <f t="shared" si="4"/>
-        <v>55</v>
-      </c>
-      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="O104">
         <f t="shared" si="5"/>
-        <v>12.881</v>
-      </c>
-      <c r="O104">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P104">
         <f t="shared" si="6"/>
-        <v>-61.053499999999943</v>
-      </c>
-      <c r="P104">
-        <f t="shared" si="7"/>
-        <v>525</v>
+        <v>372</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.3">
@@ -23139,21 +22765,17 @@
         <f>(O$1+SUM(N$2:N105))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L105" s="3">
+      <c r="M105">
         <f t="shared" si="4"/>
-        <v>-64</v>
-      </c>
-      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="O105">
         <f t="shared" si="5"/>
-        <v>-12.9472</v>
-      </c>
-      <c r="O105">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P105">
         <f t="shared" si="6"/>
-        <v>-74.000699999999938</v>
-      </c>
-      <c r="P105">
-        <f t="shared" si="7"/>
-        <v>589</v>
+        <v>372</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.3">
@@ -23191,21 +22813,17 @@
         <f>(O$1+SUM(N$2:N106))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L106" s="3">
-        <f t="shared" ref="L106:L135" si="8">IF(J106="buy",-ROUNDDOWN(K106/E106,0),ROUNDDOWN(K106/E106,0))</f>
-        <v>-68</v>
-      </c>
       <c r="M106">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O106">
         <f t="shared" si="5"/>
-        <v>-12.879200000000001</v>
-      </c>
-      <c r="O106">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P106">
         <f t="shared" si="6"/>
-        <v>-86.879899999999935</v>
-      </c>
-      <c r="P106">
-        <f t="shared" si="7"/>
-        <v>657</v>
+        <v>372</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.3">
@@ -23243,21 +22861,17 @@
         <f>(O$1+SUM(N$2:N107))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L107" s="3">
-        <f t="shared" si="8"/>
-        <v>-68</v>
-      </c>
       <c r="M107">
-        <f t="shared" ref="M107:M135" si="9">L107*E107</f>
-        <v>-12.865600000000001</v>
+        <f t="shared" ref="M107:M135" si="7">L107*E107</f>
+        <v>0</v>
       </c>
       <c r="O107">
+        <f t="shared" si="5"/>
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P107">
         <f t="shared" si="6"/>
-        <v>-99.745499999999936</v>
-      </c>
-      <c r="P107">
-        <f t="shared" si="7"/>
-        <v>725</v>
+        <v>372</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.3">
@@ -23295,21 +22909,17 @@
         <f>(O$1+SUM(N$2:N108))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L108" s="3">
-        <f t="shared" si="8"/>
-        <v>71</v>
-      </c>
       <c r="M108">
-        <f t="shared" si="9"/>
-        <v>12.9788</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="O108">
-        <f t="shared" ref="O108:O135" si="10">O107+M108</f>
-        <v>-86.766699999999929</v>
+        <f t="shared" ref="O108:O135" si="8">O107+M108</f>
+        <v>2.8801000000000148</v>
       </c>
       <c r="P108">
-        <f t="shared" ref="P108:P135" si="11">P107-L108</f>
-        <v>654</v>
+        <f t="shared" ref="P108:P135" si="9">P107-L108</f>
+        <v>372</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.3">
@@ -23347,21 +22957,17 @@
         <f>(O$1+SUM(N$2:N109))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L109" s="3">
+      <c r="M109">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O109">
         <f t="shared" si="8"/>
-        <v>-77</v>
-      </c>
-      <c r="M109">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P109">
         <f t="shared" si="9"/>
-        <v>-12.936</v>
-      </c>
-      <c r="O109">
-        <f t="shared" si="10"/>
-        <v>-99.702699999999936</v>
-      </c>
-      <c r="P109">
-        <f t="shared" si="11"/>
-        <v>731</v>
+        <v>372</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.3">
@@ -23399,21 +23005,17 @@
         <f>(O$1+SUM(N$2:N110))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L110" s="3">
+      <c r="M110">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O110">
         <f t="shared" si="8"/>
-        <v>-77</v>
-      </c>
-      <c r="M110">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P110">
         <f t="shared" si="9"/>
-        <v>-12.9206</v>
-      </c>
-      <c r="O110">
-        <f t="shared" si="10"/>
-        <v>-112.62329999999994</v>
-      </c>
-      <c r="P110">
-        <f t="shared" si="11"/>
-        <v>808</v>
+        <v>372</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.3">
@@ -23451,21 +23053,17 @@
         <f>(O$1+SUM(N$2:N111))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L111" s="3">
+      <c r="M111">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O111">
         <f t="shared" si="8"/>
-        <v>-77</v>
-      </c>
-      <c r="M111">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P111">
         <f t="shared" si="9"/>
-        <v>-12.9514</v>
-      </c>
-      <c r="O111">
-        <f t="shared" si="10"/>
-        <v>-125.57469999999995</v>
-      </c>
-      <c r="P111">
-        <f t="shared" si="11"/>
-        <v>885</v>
+        <v>372</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.3">
@@ -23503,21 +23101,17 @@
         <f>(O$1+SUM(N$2:N112))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L112" s="3">
+      <c r="M112">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O112">
         <f t="shared" si="8"/>
-        <v>-77</v>
-      </c>
-      <c r="M112">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P112">
         <f t="shared" si="9"/>
-        <v>-12.8667</v>
-      </c>
-      <c r="O112">
-        <f t="shared" si="10"/>
-        <v>-138.44139999999996</v>
-      </c>
-      <c r="P112">
-        <f t="shared" si="11"/>
-        <v>962</v>
+        <v>372</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.3">
@@ -23555,21 +23149,17 @@
         <f>(O$1+SUM(N$2:N113))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L113" s="3">
+      <c r="M113">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O113">
         <f t="shared" si="8"/>
-        <v>-77</v>
-      </c>
-      <c r="M113">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P113">
         <f t="shared" si="9"/>
-        <v>-12.897500000000001</v>
-      </c>
-      <c r="O113">
-        <f t="shared" si="10"/>
-        <v>-151.33889999999997</v>
-      </c>
-      <c r="P113">
-        <f t="shared" si="11"/>
-        <v>1039</v>
+        <v>372</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.3">
@@ -23607,21 +23197,17 @@
         <f>(O$1+SUM(N$2:N114))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L114" s="3">
+      <c r="M114">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O114">
         <f t="shared" si="8"/>
-        <v>-78</v>
-      </c>
-      <c r="M114">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P114">
         <f t="shared" si="9"/>
-        <v>-12.971400000000001</v>
-      </c>
-      <c r="O114">
-        <f t="shared" si="10"/>
-        <v>-164.31029999999996</v>
-      </c>
-      <c r="P114">
-        <f t="shared" si="11"/>
-        <v>1117</v>
+        <v>372</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.3">
@@ -23659,21 +23245,17 @@
         <f>(O$1+SUM(N$2:N115))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L115" s="3">
+      <c r="M115">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O115">
         <f t="shared" si="8"/>
-        <v>-78</v>
-      </c>
-      <c r="M115">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P115">
         <f t="shared" si="9"/>
-        <v>-12.9558</v>
-      </c>
-      <c r="O115">
-        <f t="shared" si="10"/>
-        <v>-177.26609999999997</v>
-      </c>
-      <c r="P115">
-        <f t="shared" si="11"/>
-        <v>1195</v>
+        <v>372</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.3">
@@ -23711,21 +23293,17 @@
         <f>(O$1+SUM(N$2:N116))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L116" s="3">
+      <c r="M116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O116">
         <f t="shared" si="8"/>
-        <v>-78</v>
-      </c>
-      <c r="M116">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P116">
         <f t="shared" si="9"/>
-        <v>-12.948</v>
-      </c>
-      <c r="O116">
-        <f t="shared" si="10"/>
-        <v>-190.21409999999997</v>
-      </c>
-      <c r="P116">
-        <f t="shared" si="11"/>
-        <v>1273</v>
+        <v>372</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.3">
@@ -23763,21 +23341,17 @@
         <f>(O$1+SUM(N$2:N117))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L117" s="3">
+      <c r="M117">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O117">
         <f t="shared" si="8"/>
-        <v>-78</v>
-      </c>
-      <c r="M117">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P117">
         <f t="shared" si="9"/>
-        <v>-12.971400000000001</v>
-      </c>
-      <c r="O117">
-        <f t="shared" si="10"/>
-        <v>-203.18549999999996</v>
-      </c>
-      <c r="P117">
-        <f t="shared" si="11"/>
-        <v>1351</v>
+        <v>372</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.3">
@@ -23815,21 +23389,17 @@
         <f>(O$1+SUM(N$2:N118))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L118" s="3">
+      <c r="M118">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O118">
         <f t="shared" si="8"/>
-        <v>-78</v>
-      </c>
-      <c r="M118">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P118">
         <f t="shared" si="9"/>
-        <v>-12.9636</v>
-      </c>
-      <c r="O118">
-        <f t="shared" si="10"/>
-        <v>-216.14909999999998</v>
-      </c>
-      <c r="P118">
-        <f t="shared" si="11"/>
-        <v>1429</v>
+        <v>372</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.3">
@@ -23867,21 +23437,17 @@
         <f>(O$1+SUM(N$2:N119))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L119" s="3">
+      <c r="M119">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O119">
         <f t="shared" si="8"/>
-        <v>-78</v>
-      </c>
-      <c r="M119">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P119">
         <f t="shared" si="9"/>
-        <v>-12.971400000000001</v>
-      </c>
-      <c r="O119">
-        <f t="shared" si="10"/>
-        <v>-229.12049999999996</v>
-      </c>
-      <c r="P119">
-        <f t="shared" si="11"/>
-        <v>1507</v>
+        <v>372</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.3">
@@ -23919,21 +23485,17 @@
         <f>(O$1+SUM(N$2:N120))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L120" s="3">
+      <c r="M120">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O120">
         <f t="shared" si="8"/>
-        <v>-78</v>
-      </c>
-      <c r="M120">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P120">
         <f t="shared" si="9"/>
-        <v>-12.8934</v>
-      </c>
-      <c r="O120">
-        <f t="shared" si="10"/>
-        <v>-242.01389999999998</v>
-      </c>
-      <c r="P120">
-        <f t="shared" si="11"/>
-        <v>1585</v>
+        <v>372</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.3">
@@ -23971,21 +23533,17 @@
         <f>(O$1+SUM(N$2:N121))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L121" s="3">
+      <c r="M121">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O121">
         <f t="shared" si="8"/>
-        <v>-78</v>
-      </c>
-      <c r="M121">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P121">
         <f t="shared" si="9"/>
-        <v>-12.901199999999999</v>
-      </c>
-      <c r="O121">
-        <f t="shared" si="10"/>
-        <v>-254.91509999999997</v>
-      </c>
-      <c r="P121">
-        <f t="shared" si="11"/>
-        <v>1663</v>
+        <v>372</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.3">
@@ -24023,21 +23581,17 @@
         <f>(O$1+SUM(N$2:N122))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L122" s="3">
+      <c r="M122">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O122">
         <f t="shared" si="8"/>
-        <v>-78</v>
-      </c>
-      <c r="M122">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P122">
         <f t="shared" si="9"/>
-        <v>-12.877800000000001</v>
-      </c>
-      <c r="O122">
-        <f t="shared" si="10"/>
-        <v>-267.79289999999997</v>
-      </c>
-      <c r="P122">
-        <f t="shared" si="11"/>
-        <v>1741</v>
+        <v>372</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.3">
@@ -24075,21 +23629,17 @@
         <f>(O$1+SUM(N$2:N123))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L123" s="3">
+      <c r="M123">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O123">
         <f t="shared" si="8"/>
-        <v>-78</v>
-      </c>
-      <c r="M123">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P123">
         <f t="shared" si="9"/>
-        <v>-12.8544</v>
-      </c>
-      <c r="O123">
-        <f t="shared" si="10"/>
-        <v>-280.64729999999997</v>
-      </c>
-      <c r="P123">
-        <f t="shared" si="11"/>
-        <v>1819</v>
+        <v>372</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.3">
@@ -24127,21 +23677,17 @@
         <f>(O$1+SUM(N$2:N124))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L124" s="3">
+      <c r="M124">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O124">
         <f t="shared" si="8"/>
-        <v>-79</v>
-      </c>
-      <c r="M124">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P124">
         <f t="shared" si="9"/>
-        <v>-12.9244</v>
-      </c>
-      <c r="O124">
-        <f t="shared" si="10"/>
-        <v>-293.57169999999996</v>
-      </c>
-      <c r="P124">
-        <f t="shared" si="11"/>
-        <v>1898</v>
+        <v>372</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.3">
@@ -24179,21 +23725,17 @@
         <f>(O$1+SUM(N$2:N125))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L125" s="3">
+      <c r="M125">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O125">
         <f t="shared" si="8"/>
-        <v>71</v>
-      </c>
-      <c r="M125">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P125">
         <f t="shared" si="9"/>
-        <v>13.000100000000002</v>
-      </c>
-      <c r="O125">
-        <f t="shared" si="10"/>
-        <v>-280.57159999999999</v>
-      </c>
-      <c r="P125">
-        <f t="shared" si="11"/>
-        <v>1827</v>
+        <v>372</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.3">
@@ -24231,21 +23773,17 @@
         <f>(O$1+SUM(N$2:N126))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L126" s="3">
+      <c r="M126">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O126">
         <f t="shared" si="8"/>
-        <v>70</v>
-      </c>
-      <c r="M126">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P126">
         <f t="shared" si="9"/>
-        <v>12.866</v>
-      </c>
-      <c r="O126">
-        <f t="shared" si="10"/>
-        <v>-267.7056</v>
-      </c>
-      <c r="P126">
-        <f t="shared" si="11"/>
-        <v>1757</v>
+        <v>372</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.3">
@@ -24283,21 +23821,17 @@
         <f>(O$1+SUM(N$2:N127))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L127" s="3">
+      <c r="M127">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O127">
         <f t="shared" si="8"/>
-        <v>48</v>
-      </c>
-      <c r="M127">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P127">
         <f t="shared" si="9"/>
-        <v>12.8688</v>
-      </c>
-      <c r="O127">
-        <f t="shared" si="10"/>
-        <v>-254.83680000000001</v>
-      </c>
-      <c r="P127">
-        <f t="shared" si="11"/>
-        <v>1709</v>
+        <v>372</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.3">
@@ -24335,21 +23869,17 @@
         <f>(O$1+SUM(N$2:N128))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L128" s="3">
+      <c r="M128">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O128">
         <f t="shared" si="8"/>
-        <v>48</v>
-      </c>
-      <c r="M128">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P128">
         <f t="shared" si="9"/>
-        <v>12.940799999999999</v>
-      </c>
-      <c r="O128">
-        <f t="shared" si="10"/>
-        <v>-241.89600000000002</v>
-      </c>
-      <c r="P128">
-        <f t="shared" si="11"/>
-        <v>1661</v>
+        <v>372</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.3">
@@ -24387,21 +23917,17 @@
         <f>(O$1+SUM(N$2:N129))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L129" s="3">
+      <c r="M129">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O129">
         <f t="shared" si="8"/>
-        <v>48</v>
-      </c>
-      <c r="M129">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P129">
         <f t="shared" si="9"/>
-        <v>12.931199999999999</v>
-      </c>
-      <c r="O129">
-        <f t="shared" si="10"/>
-        <v>-228.96480000000003</v>
-      </c>
-      <c r="P129">
-        <f t="shared" si="11"/>
-        <v>1613</v>
+        <v>372</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.3">
@@ -24439,21 +23965,17 @@
         <f>(O$1+SUM(N$2:N130))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L130" s="3">
+      <c r="M130">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O130">
         <f t="shared" si="8"/>
-        <v>48</v>
-      </c>
-      <c r="M130">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P130">
         <f t="shared" si="9"/>
-        <v>12.9168</v>
-      </c>
-      <c r="O130">
-        <f t="shared" si="10"/>
-        <v>-216.04800000000003</v>
-      </c>
-      <c r="P130">
-        <f t="shared" si="11"/>
-        <v>1565</v>
+        <v>372</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.3">
@@ -24491,21 +24013,17 @@
         <f>(O$1+SUM(N$2:N131))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L131" s="3">
+      <c r="M131">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O131">
         <f t="shared" si="8"/>
-        <v>47</v>
-      </c>
-      <c r="M131">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P131">
         <f t="shared" si="9"/>
-        <v>12.8827</v>
-      </c>
-      <c r="O131">
-        <f t="shared" si="10"/>
-        <v>-203.16530000000003</v>
-      </c>
-      <c r="P131">
-        <f t="shared" si="11"/>
-        <v>1518</v>
+        <v>372</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.3">
@@ -24543,21 +24061,17 @@
         <f>(O$1+SUM(N$2:N132))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L132" s="3">
+      <c r="M132">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O132">
         <f t="shared" si="8"/>
-        <v>46</v>
-      </c>
-      <c r="M132">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P132">
         <f t="shared" si="9"/>
-        <v>12.9076</v>
-      </c>
-      <c r="O132">
-        <f t="shared" si="10"/>
-        <v>-190.25770000000003</v>
-      </c>
-      <c r="P132">
-        <f t="shared" si="11"/>
-        <v>1472</v>
+        <v>372</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.3">
@@ -24595,21 +24109,17 @@
         <f>(O$1+SUM(N$2:N133))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L133" s="3">
+      <c r="M133">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O133">
         <f t="shared" si="8"/>
-        <v>46</v>
-      </c>
-      <c r="M133">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P133">
         <f t="shared" si="9"/>
-        <v>12.921399999999998</v>
-      </c>
-      <c r="O133">
-        <f t="shared" si="10"/>
-        <v>-177.33630000000002</v>
-      </c>
-      <c r="P133">
-        <f t="shared" si="11"/>
-        <v>1426</v>
+        <v>372</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.3">
@@ -24647,21 +24157,17 @@
         <f>(O$1+SUM(N$2:N134))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L134" s="3">
+      <c r="M134">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O134">
         <f t="shared" si="8"/>
-        <v>45</v>
-      </c>
-      <c r="M134">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P134">
         <f t="shared" si="9"/>
-        <v>12.824999999999999</v>
-      </c>
-      <c r="O134">
-        <f t="shared" si="10"/>
-        <v>-164.51130000000003</v>
-      </c>
-      <c r="P134">
-        <f t="shared" si="11"/>
-        <v>1381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.3">
@@ -24699,21 +24205,17 @@
         <f>(O$1+SUM(N$2:N135))*0.1</f>
         <v>13.010730000000002</v>
       </c>
-      <c r="L135" s="3">
+      <c r="M135">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O135">
         <f t="shared" si="8"/>
-        <v>45</v>
-      </c>
-      <c r="M135">
+        <v>2.8801000000000148</v>
+      </c>
+      <c r="P135">
         <f t="shared" si="9"/>
-        <v>12.824999999999999</v>
-      </c>
-      <c r="O135">
-        <f t="shared" si="10"/>
-        <v>-151.68630000000005</v>
-      </c>
-      <c r="P135">
-        <f t="shared" si="11"/>
-        <v>1336</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
